--- a/pred_ohlcv/54_21/2020-01-14 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-929874.4754999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1957398.306765726</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1985914.960365726</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1985875.660365726</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1969535.445065726</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1970043.891865726</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1973572.891865726</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2011854.233565726</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2029793.533865726</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2075528.510165726</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2187043.430665726</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2192618.856965726</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2330037.476565727</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2306207.793365727</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2314771.800365727</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2362679.800365727</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2360553.938965727</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2376329.575765728</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2509702.909065728</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2588112.778265728</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2615471.993065728</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2835155.626665728</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2923388.208865728</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2830174.535865728</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2774211.620165728</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2757255.620165728</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2712641.994665728</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2686241.236865729</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2623587.854165729</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2705864.380865728</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-929874.4754999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1957398.306765726</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1985914.960365726</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1985875.660365726</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1969535.445065726</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1970043.891865726</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1973572.891865726</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2011854.233565726</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2029793.533865726</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2075528.510165726</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2187043.430665726</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2192618.856965726</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2330037.476565727</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2306207.793365727</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2314771.800365727</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2362679.800365727</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2360553.938965727</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2376329.575765728</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2615471.993065728</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2835155.626665728</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2923388.208865728</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2830174.535865728</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2774211.620165728</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2757255.620165728</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2712641.994665728</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2720219.994665728</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2688903.994665728</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2650175.741565729</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2686241.236865729</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2623587.854165729</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2637537.862465729</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2637350.404165728</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2637350.404165728</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2637245.306265729</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2637166.487565728</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2657166.487565728</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2650754.311065728</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2685401.112965728</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2685312.092265728</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2705864.380865728</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
